--- a/Snowflake Naming Convention/SnowflakeNamingConvention.xlsx
+++ b/Snowflake Naming Convention/SnowflakeNamingConvention.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snikk\Google Drive\DataAccolade\2023\Technical Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE96123-613F-4994-BB07-F2E2AE613E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3A6D57-ADFC-457B-9FBF-BD6D39AE9929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="198">
   <si>
     <t>Prefix</t>
   </si>
@@ -630,6 +630,9 @@
   </si>
   <si>
     <t>Marketing</t>
+  </si>
+  <si>
+    <t>Object.</t>
   </si>
 </sst>
 </file>
@@ -2012,10 +2015,10 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2035,7 +2038,7 @@
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>145</v>
